--- a/data/databook-simple-cascade-autocalibration.xlsx
+++ b/data/databook-simple-cascade-autocalibration.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="24100" windowHeight="14120" activeTab="7"/>
+    <workbookView xWindow="260" yWindow="-23540" windowWidth="25600" windowHeight="22500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -938,7 +938,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1154,26 +1154,25 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E6">
-        <v>500</v>
-      </c>
-      <c r="F6">
-        <v>500</v>
-      </c>
-      <c r="G6">
-        <v>500</v>
-      </c>
-      <c r="H6">
-        <v>500</v>
-      </c>
-      <c r="I6">
-        <v>500</v>
-      </c>
-      <c r="J6">
-        <v>500</v>
-      </c>
-      <c r="K6">
-        <v>500</v>
+      <c r="E6" s="1">
+        <f>F2-E2</f>
+        <v>10000</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" ref="F6:I7" si="0">G2-F2</f>
+        <v>10000</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -1191,38 +1190,25 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7">
-        <v>700</v>
-      </c>
-      <c r="F7">
-        <v>700</v>
-      </c>
-      <c r="G7">
-        <v>700</v>
-      </c>
-      <c r="H7">
-        <v>700</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
-      </c>
-      <c r="J7">
-        <v>700</v>
-      </c>
-      <c r="K7">
-        <v>700</v>
-      </c>
-      <c r="L7">
-        <v>700</v>
-      </c>
-      <c r="M7">
-        <v>700</v>
-      </c>
-      <c r="N7">
-        <v>700</v>
-      </c>
-      <c r="O7">
-        <v>700</v>
+      <c r="E7" s="1">
+        <f>F3-E3</f>
+        <v>10000</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -1249,7 +1235,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1333,10 +1319,16 @@
         <v>14</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="J2">
+        <v>11000</v>
+      </c>
+      <c r="O2">
+        <v>23000</v>
       </c>
       <c r="T2">
-        <v>15000</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -1355,10 +1347,13 @@
         <v>14</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="J3">
+        <v>20000</v>
       </c>
       <c r="O3">
-        <v>20000</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -1436,10 +1431,13 @@
         <v>14</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O6">
-        <v>40000</v>
+        <v>45000</v>
+      </c>
+      <c r="T6">
+        <v>65000</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -1458,10 +1456,13 @@
         <v>14</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O7">
-        <v>60000</v>
+        <v>62500</v>
+      </c>
+      <c r="T7">
+        <v>85000</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -1539,16 +1540,13 @@
         <v>14</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O10">
-        <v>3500</v>
-      </c>
-      <c r="P10">
-        <v>3555</v>
-      </c>
-      <c r="Q10">
-        <v>3610</v>
+        <v>2500</v>
+      </c>
+      <c r="T10">
+        <v>5000</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -1567,16 +1565,13 @@
         <v>14</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="O11">
-        <v>5000</v>
-      </c>
-      <c r="P11">
-        <v>5100</v>
-      </c>
-      <c r="Q11">
-        <v>5200</v>
+        <v>8000</v>
+      </c>
+      <c r="T11">
+        <v>20000</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -1654,13 +1649,16 @@
         <v>14</v>
       </c>
       <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>1000</v>
+        <v>100</v>
+      </c>
+      <c r="J14">
+        <v>1500</v>
+      </c>
+      <c r="O14">
+        <v>4200</v>
       </c>
       <c r="T14">
-        <v>2700</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
@@ -1679,13 +1677,16 @@
         <v>14</v>
       </c>
       <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>1900</v>
+        <v>500</v>
+      </c>
+      <c r="J15">
+        <v>2200</v>
+      </c>
+      <c r="O15">
+        <v>6000</v>
       </c>
       <c r="T15">
-        <v>5000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -1763,13 +1764,13 @@
         <v>14</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="J18">
+        <v>100</v>
       </c>
       <c r="O18">
-        <v>70</v>
-      </c>
-      <c r="T18">
-        <v>150</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
@@ -1788,13 +1789,13 @@
         <v>14</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="J19">
+        <v>250</v>
       </c>
       <c r="O19">
-        <v>50</v>
-      </c>
-      <c r="T19">
-        <v>200</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
@@ -1865,8 +1866,7 @@
         <v>12</v>
       </c>
       <c r="C22">
-        <f>IF(SUMPRODUCT(--(E22:T22&lt;&gt;""))=0,0.01,"N.A.")</f>
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
@@ -1881,8 +1881,7 @@
         <v>12</v>
       </c>
       <c r="C23">
-        <f>IF(SUMPRODUCT(--(E23:T23&lt;&gt;""))=0,0.01,"N.A.")</f>
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
@@ -1935,7 +1934,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2011,8 +2012,7 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <f>IF(SUMPRODUCT(--(E2:T2&lt;&gt;""))=0,0.01,"N.A.")</f>
-        <v>0.01</v>
+        <v>2.3E-2</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -2027,8 +2027,7 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <f>IF(SUMPRODUCT(--(E3:T3&lt;&gt;""))=0,0.01,"N.A.")</f>
-        <v>0.01</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -2102,8 +2101,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <f>IF(SUMPRODUCT(--(E6:T6&lt;&gt;""))=0,0.01,"N.A.")</f>
-        <v>0.01</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -2118,8 +2116,7 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <f>IF(SUMPRODUCT(--(E7:T7&lt;&gt;""))=0,0.01,"N.A.")</f>
-        <v>0.01</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -2148,8 +2145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2225,18 +2222,12 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2">
         <f>IF(SUMPRODUCT(--(E2:T2&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>N.A.</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0.02</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -2247,18 +2238,12 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3">
         <f>IF(SUMPRODUCT(--(E3:T3&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>N.A.</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -2279,7 +2264,7 @@
   <dimension ref="A1:T43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2355,12 +2340,15 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="str">
         <f>IF(SUMPRODUCT(--(E2:T2&lt;&gt;""))=0,0.01,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
         <v>0.01</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -2371,12 +2359,15 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="str">
         <f>IF(SUMPRODUCT(--(E3:T3&lt;&gt;""))=0,0.01,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
         <v>0.01</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -2446,12 +2437,15 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="str">
         <f>IF(SUMPRODUCT(--(E6:T6&lt;&gt;""))=0,0.02,"N.A.")</f>
-        <v>0.02</v>
+        <v>N.A.</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
+      </c>
+      <c r="E6">
+        <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -2462,12 +2456,15 @@
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="str">
         <f>IF(SUMPRODUCT(--(E7:T7&lt;&gt;""))=0,0.02,"N.A.")</f>
-        <v>0.02</v>
+        <v>N.A.</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
+      </c>
+      <c r="E7">
+        <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -2537,12 +2534,15 @@
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="str">
         <f>IF(SUMPRODUCT(--(E10:T10&lt;&gt;""))=0,0.01,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
         <v>0.01</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -2553,12 +2553,15 @@
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="str">
         <f>IF(SUMPRODUCT(--(E11:T11&lt;&gt;""))=0,0.01,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11">
         <v>0.01</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -2628,12 +2631,15 @@
       <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="str">
         <f>IF(SUMPRODUCT(--(E14:T14&lt;&gt;""))=0,0.01,"N.A.")</f>
-        <v>0.01</v>
+        <v>N.A.</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
+      </c>
+      <c r="E14">
+        <v>0.02</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
@@ -2644,12 +2650,15 @@
       <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="str">
         <f>IF(SUMPRODUCT(--(E15:T15&lt;&gt;""))=0,0.01,"N.A.")</f>
-        <v>0.01</v>
+        <v>N.A.</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
+      </c>
+      <c r="E15">
+        <v>0.02</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -2719,12 +2728,15 @@
       <c r="B18" t="s">
         <v>12</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="str">
         <f>IF(SUMPRODUCT(--(E18:T18&lt;&gt;""))=0,0.01,"N.A.")</f>
-        <v>0.01</v>
+        <v>N.A.</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
+      </c>
+      <c r="E18">
+        <v>0.02</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
@@ -2735,12 +2747,15 @@
       <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="str">
         <f>IF(SUMPRODUCT(--(E19:T19&lt;&gt;""))=0,0.01,"N.A.")</f>
-        <v>0.01</v>
+        <v>N.A.</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
+      </c>
+      <c r="E19">
+        <v>0.02</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
@@ -2810,12 +2825,15 @@
       <c r="B22" t="s">
         <v>12</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="str">
         <f>IF(SUMPRODUCT(--(E22:T22&lt;&gt;""))=0,0.01,"N.A.")</f>
-        <v>0.01</v>
+        <v>N.A.</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
+      </c>
+      <c r="E22">
+        <v>0.05</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
@@ -2826,12 +2844,15 @@
       <c r="B23" t="s">
         <v>12</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="str">
         <f>IF(SUMPRODUCT(--(E23:T23&lt;&gt;""))=0,0.01,"N.A.")</f>
-        <v>0.01</v>
+        <v>N.A.</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
+      </c>
+      <c r="E23">
+        <v>0.05</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
@@ -2901,12 +2922,15 @@
       <c r="B26" t="s">
         <v>12</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="str">
         <f>IF(SUMPRODUCT(--(E26:T26&lt;&gt;""))=0,0.01,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26">
         <v>0.01</v>
-      </c>
-      <c r="D26" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
@@ -2917,12 +2941,15 @@
       <c r="B27" t="s">
         <v>12</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="str">
         <f>IF(SUMPRODUCT(--(E27:T27&lt;&gt;""))=0,0.01,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27">
         <v>0.01</v>
-      </c>
-      <c r="D27" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
@@ -2992,12 +3019,15 @@
       <c r="B30" t="s">
         <v>12</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="str">
         <f>IF(SUMPRODUCT(--(E30:T30&lt;&gt;""))=0,0.01,"N.A.")</f>
-        <v>0.01</v>
+        <v>N.A.</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
+      </c>
+      <c r="E30">
+        <v>0.05</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
@@ -3008,12 +3038,15 @@
       <c r="B31" t="s">
         <v>12</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="str">
         <f>IF(SUMPRODUCT(--(E31:T31&lt;&gt;""))=0,0.01,"N.A.")</f>
-        <v>0.01</v>
+        <v>N.A.</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
+      </c>
+      <c r="E31">
+        <v>0.05</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
@@ -3083,12 +3116,15 @@
       <c r="B34" t="s">
         <v>12</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="str">
         <f>IF(SUMPRODUCT(--(E34:T34&lt;&gt;""))=0,0.01,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34">
         <v>0.01</v>
-      </c>
-      <c r="D34" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
@@ -3099,12 +3135,15 @@
       <c r="B35" t="s">
         <v>12</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="str">
         <f>IF(SUMPRODUCT(--(E35:T35&lt;&gt;""))=0,0.01,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35">
         <v>0.01</v>
-      </c>
-      <c r="D35" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
@@ -3174,12 +3213,15 @@
       <c r="B38" t="s">
         <v>12</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="str">
         <f>IF(SUMPRODUCT(--(E38:T38&lt;&gt;""))=0,0.01,"N.A.")</f>
-        <v>0.01</v>
+        <v>N.A.</v>
       </c>
       <c r="D38" t="s">
         <v>14</v>
+      </c>
+      <c r="E38">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
@@ -3190,12 +3232,15 @@
       <c r="B39" t="s">
         <v>12</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="str">
         <f>IF(SUMPRODUCT(--(E39:T39&lt;&gt;""))=0,0.01,"N.A.")</f>
-        <v>0.01</v>
+        <v>N.A.</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
+      </c>
+      <c r="E39">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
@@ -3265,12 +3310,15 @@
       <c r="B42" t="s">
         <v>12</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="str">
         <f>IF(SUMPRODUCT(--(E42:T42&lt;&gt;""))=0,0.01,"N.A.")</f>
-        <v>0.01</v>
+        <v>N.A.</v>
       </c>
       <c r="D42" t="s">
         <v>14</v>
+      </c>
+      <c r="E42">
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
@@ -3281,12 +3329,15 @@
       <c r="B43" t="s">
         <v>12</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="str">
         <f>IF(SUMPRODUCT(--(E43:T43&lt;&gt;""))=0,0.01,"N.A.")</f>
-        <v>0.01</v>
+        <v>N.A.</v>
       </c>
       <c r="D43" t="s">
         <v>14</v>
+      </c>
+      <c r="E43">
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data/databook-simple-cascade-autocalibration.xlsx
+++ b/data/databook-simple-cascade-autocalibration.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="260" yWindow="-23540" windowWidth="25600" windowHeight="22500" activeTab="7"/>
+    <workbookView xWindow="260" yWindow="-23540" windowWidth="25600" windowHeight="22500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -1234,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1456,7 +1456,7 @@
         <v>14</v>
       </c>
       <c r="E7">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="O7">
         <v>62500</v>
@@ -1677,7 +1677,7 @@
         <v>14</v>
       </c>
       <c r="E15">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="J15">
         <v>2200</v>
@@ -2263,7 +2263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
